--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22375B2D-C8A0-4AE2-8B63-37AC747FA433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C06C8B-B469-4F49-BA0D-13C77C85E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2730" windowWidth="28830" windowHeight="7830" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -34,53 +34,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+  <si>
+    <t>Pet_0002</t>
+  </si>
+  <si>
+    <t>Pet_0003</t>
+  </si>
+  <si>
+    <t>Pet_0004</t>
+  </si>
+  <si>
+    <t>Pet_0005</t>
+  </si>
+  <si>
+    <t>Pet_0006</t>
+  </si>
   <si>
     <t>petId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>star|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>accumulatedAtk|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>prefabAddress|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>orderIndex|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>meetWeight|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Pet_0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CuteUnicorn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pet_0002</t>
-  </si>
-  <si>
-    <t>Pet_0003</t>
-  </si>
-  <si>
-    <t>Pet_0004</t>
-  </si>
-  <si>
-    <t>Pet_0005</t>
-  </si>
-  <si>
-    <t>Pet_0006</t>
+  </si>
+  <si>
+    <t>TamporaB</t>
+  </si>
+  <si>
+    <t>TamporaA</t>
   </si>
 </sst>
 </file>
@@ -446,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -456,27 +456,27 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -485,7 +485,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -505,7 +505,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -545,7 +545,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -565,7 +565,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>6</v>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C06C8B-B469-4F49-BA0D-13C77C85E6D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77A14B-5F0F-47C1-B195-33C08FF1AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -79,6 +79,33 @@
   </si>
   <si>
     <t>TamporaA</t>
+  </si>
+  <si>
+    <t>nameId|String</t>
+  </si>
+  <si>
+    <t>spriteName|String</t>
+  </si>
+  <si>
+    <t>PetName_0001</t>
+  </si>
+  <si>
+    <t>PetPortrait_0001</t>
+  </si>
+  <si>
+    <t>PetName_0002</t>
+  </si>
+  <si>
+    <t>PetName_0003</t>
+  </si>
+  <si>
+    <t>PetName_0004</t>
+  </si>
+  <si>
+    <t>PetName_0005</t>
+  </si>
+  <si>
+    <t>PetName_0006</t>
   </si>
 </sst>
 </file>
@@ -442,155 +469,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="1" max="2" width="12.125" customWidth="1"/>
+    <col min="5" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E4">
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>1</v>
       </c>
     </row>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77A14B-5F0F-47C1-B195-33C08FF1AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BB1F5F-D571-4374-AB02-21473B195EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
+    <sheet name="PetSaleTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -106,6 +107,27 @@
   </si>
   <si>
     <t>PetName_0006</t>
+  </si>
+  <si>
+    <t>count|Int</t>
+  </si>
+  <si>
+    <t>shopProductId|String</t>
+  </si>
+  <si>
+    <t>petsale_1</t>
+  </si>
+  <si>
+    <t>petsale_2</t>
+  </si>
+  <si>
+    <t>petsale_3</t>
+  </si>
+  <si>
+    <t>petsale_4</t>
+  </si>
+  <si>
+    <t>petsale_5</t>
   </si>
 </sst>
 </file>
@@ -471,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -665,4 +687,89 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0D56E-8554-480F-9D28-FB27B90B1A07}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BB1F5F-D571-4374-AB02-21473B195EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E0F2A-CDCE-4072-9351-67D85A9B3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="7830" activeTab="2" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
     <sheet name="PetSaleTable" sheetId="3" r:id="rId2"/>
+    <sheet name="PetCountTable" sheetId="4" r:id="rId3"/>
+    <sheet name="PetCaptureTable" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -128,6 +130,51 @@
   </si>
   <si>
     <t>petsale_5</t>
+  </si>
+  <si>
+    <t>step|Int</t>
+  </si>
+  <si>
+    <t>max|Int</t>
+  </si>
+  <si>
+    <t>cost|Int</t>
+  </si>
+  <si>
+    <t>CaptureName_Basic</t>
+  </si>
+  <si>
+    <t>CaptureName_Better</t>
+  </si>
+  <si>
+    <t>CaptureName_Best</t>
+  </si>
+  <si>
+    <t>captureId|String</t>
+  </si>
+  <si>
+    <t>starProb_3|Float</t>
+  </si>
+  <si>
+    <t>starProb_4|Float</t>
+  </si>
+  <si>
+    <t>starProb_5|Float</t>
+  </si>
+  <si>
+    <t>CaptureBasic</t>
+  </si>
+  <si>
+    <t>CaptureBetter</t>
+  </si>
+  <si>
+    <t>capturebetter</t>
+  </si>
+  <si>
+    <t>CaptureBest</t>
+  </si>
+  <si>
+    <t>capturebest</t>
   </si>
 </sst>
 </file>
@@ -693,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0D56E-8554-480F-9D28-FB27B90B1A07}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -772,4 +819,1468 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A921F3D8-0505-4772-AB42-62562D832756}">
+  <dimension ref="A1:D96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>65</v>
+      </c>
+      <c r="D14">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>75</v>
+      </c>
+      <c r="D16">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>80</v>
+      </c>
+      <c r="D17">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>35</v>
+      </c>
+      <c r="D27">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>60</v>
+      </c>
+      <c r="D32">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>65</v>
+      </c>
+      <c r="D33">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>85</v>
+      </c>
+      <c r="D37">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>90</v>
+      </c>
+      <c r="D38">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>40</v>
+      </c>
+      <c r="D47">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>45</v>
+      </c>
+      <c r="D48">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>13500000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>11</v>
+      </c>
+      <c r="C51">
+        <v>60</v>
+      </c>
+      <c r="D51">
+        <v>16500000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>70</v>
+      </c>
+      <c r="D53">
+        <v>19500000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>21000000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>80</v>
+      </c>
+      <c r="D55">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>85</v>
+      </c>
+      <c r="D56">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>90</v>
+      </c>
+      <c r="D57">
+        <v>25500000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>27000000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>10</v>
+      </c>
+      <c r="D60">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>25</v>
+      </c>
+      <c r="D63">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+      <c r="D65">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>4</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>40</v>
+      </c>
+      <c r="D66">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>45</v>
+      </c>
+      <c r="D67">
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>50</v>
+      </c>
+      <c r="D68">
+        <v>18000000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>22000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>4</v>
+      </c>
+      <c r="B71">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>65</v>
+      </c>
+      <c r="D71">
+        <v>24000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>4</v>
+      </c>
+      <c r="B72">
+        <v>13</v>
+      </c>
+      <c r="C72">
+        <v>70</v>
+      </c>
+      <c r="D72">
+        <v>26000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>75</v>
+      </c>
+      <c r="D73">
+        <v>28000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="B74">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>80</v>
+      </c>
+      <c r="D74">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>85</v>
+      </c>
+      <c r="D75">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>90</v>
+      </c>
+      <c r="D76">
+        <v>34000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>95</v>
+      </c>
+      <c r="D77">
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+      <c r="D80">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>20</v>
+      </c>
+      <c r="D81">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+      <c r="D82">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>40</v>
+      </c>
+      <c r="D85">
+        <v>17500000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>45</v>
+      </c>
+      <c r="D86">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>50</v>
+      </c>
+      <c r="D87">
+        <v>22500000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>27500000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>65</v>
+      </c>
+      <c r="D90">
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>70</v>
+      </c>
+      <c r="D91">
+        <v>32500000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>80</v>
+      </c>
+      <c r="D93">
+        <v>37500000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>85</v>
+      </c>
+      <c r="D94">
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>90</v>
+      </c>
+      <c r="D95">
+        <v>42500000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>45000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE981C42-9621-40CD-A8B7-498CA4359042}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="5" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>0.8</v>
+      </c>
+      <c r="D2">
+        <v>0.3</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.75</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0.95</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124E0F2A-CDCE-4072-9351-67D85A9B3281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A3E43-5897-4676-9414-66259EE39463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="7830" activeTab="2" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -168,13 +168,13 @@
     <t>CaptureBetter</t>
   </si>
   <si>
-    <t>capturebetter</t>
-  </si>
-  <si>
     <t>CaptureBest</t>
   </si>
   <si>
-    <t>capturebest</t>
+    <t>petcapture_better</t>
+  </si>
+  <si>
+    <t>petcapture_best</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A921F3D8-0505-4772-AB42-62562D832756}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2183,7 +2183,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE981C42-9621-40CD-A8B7-498CA4359042}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2253,12 +2255,12 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186A3E43-5897-4676-9414-66259EE39463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4063B3-2014-46A2-877C-CD0D10385358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -175,6 +175,66 @@
   </si>
   <si>
     <t>petcapture_best</t>
+  </si>
+  <si>
+    <t>FirePigA</t>
+  </si>
+  <si>
+    <t>FirePigB</t>
+  </si>
+  <si>
+    <t>ShellfishA</t>
+  </si>
+  <si>
+    <t>ShellfishC</t>
+  </si>
+  <si>
+    <t>ShellfishE</t>
+  </si>
+  <si>
+    <t>StarfishC</t>
+  </si>
+  <si>
+    <t>StarfishD</t>
+  </si>
+  <si>
+    <t>StarfishE</t>
+  </si>
+  <si>
+    <t>Pet_0007</t>
+  </si>
+  <si>
+    <t>Pet_0008</t>
+  </si>
+  <si>
+    <t>Pet_0009</t>
+  </si>
+  <si>
+    <t>Pet_0010</t>
+  </si>
+  <si>
+    <t>Pet_0011</t>
+  </si>
+  <si>
+    <t>PetName_0007</t>
+  </si>
+  <si>
+    <t>PetName_0008</t>
+  </si>
+  <si>
+    <t>PetName_0009</t>
+  </si>
+  <si>
+    <t>PetName_0010</t>
+  </si>
+  <si>
+    <t>PetName_0011</t>
+  </si>
+  <si>
+    <t>PetPortrait_0002</t>
+  </si>
+  <si>
+    <t>PetPortrait_0003</t>
   </si>
 </sst>
 </file>
@@ -538,13 +598,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -597,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -617,13 +678,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -643,13 +704,13 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,16 +727,16 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -692,16 +753,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>13.33333333</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -712,22 +773,152 @@
         <v>23</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7">
-        <v>1</v>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>13.33333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>13.33333333</v>
       </c>
     </row>
   </sheetData>
@@ -2183,7 +2374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE981C42-9621-40CD-A8B7-498CA4359042}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4063B3-2014-46A2-877C-CD0D10385358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B4BAC-7663-48E3-8300-FF408226D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="162">
   <si>
     <t>Pet_0002</t>
   </si>
@@ -93,9 +93,6 @@
     <t>PetName_0001</t>
   </si>
   <si>
-    <t>PetPortrait_0001</t>
-  </si>
-  <si>
     <t>PetName_0002</t>
   </si>
   <si>
@@ -231,10 +228,301 @@
     <t>PetName_0011</t>
   </si>
   <si>
-    <t>PetPortrait_0002</t>
-  </si>
-  <si>
-    <t>PetPortrait_0003</t>
+    <t>Pet_CuteUnicorn</t>
+  </si>
+  <si>
+    <t>Pet_TamporaB</t>
+  </si>
+  <si>
+    <t>Pet_TamporaA</t>
+  </si>
+  <si>
+    <t>Pet_FirePigA</t>
+  </si>
+  <si>
+    <t>Pet_FirePigB</t>
+  </si>
+  <si>
+    <t>Pet_ShellfishA</t>
+  </si>
+  <si>
+    <t>Pet_ShellfishC</t>
+  </si>
+  <si>
+    <t>Pet_ShellfishE</t>
+  </si>
+  <si>
+    <t>Pet_StarfishC</t>
+  </si>
+  <si>
+    <t>Pet_StarfishD</t>
+  </si>
+  <si>
+    <t>Pet_StarfishE</t>
+  </si>
+  <si>
+    <t>Pet_0012</t>
+  </si>
+  <si>
+    <t>PetName_0012</t>
+  </si>
+  <si>
+    <t>BettyA</t>
+  </si>
+  <si>
+    <t>Pet_BettyA</t>
+  </si>
+  <si>
+    <t>Pet_0013</t>
+  </si>
+  <si>
+    <t>PetName_0013</t>
+  </si>
+  <si>
+    <t>BettyC</t>
+  </si>
+  <si>
+    <t>Pet_BettyC</t>
+  </si>
+  <si>
+    <t>Pet_0014</t>
+  </si>
+  <si>
+    <t>PetName_0014</t>
+  </si>
+  <si>
+    <t>CuteCrabA</t>
+  </si>
+  <si>
+    <t>Pet_CuteCrabA</t>
+  </si>
+  <si>
+    <t>Pet_0015</t>
+  </si>
+  <si>
+    <t>PetName_0015</t>
+  </si>
+  <si>
+    <t>CuteCrabB</t>
+  </si>
+  <si>
+    <t>Pet_CuteCrabB</t>
+  </si>
+  <si>
+    <t>Pet_0016</t>
+  </si>
+  <si>
+    <t>PetName_0016</t>
+  </si>
+  <si>
+    <t>DinoA</t>
+  </si>
+  <si>
+    <t>Pet_DinoA</t>
+  </si>
+  <si>
+    <t>Pet_0017</t>
+  </si>
+  <si>
+    <t>PetName_0017</t>
+  </si>
+  <si>
+    <t>DinoB</t>
+  </si>
+  <si>
+    <t>Pet_DinoB</t>
+  </si>
+  <si>
+    <t>Pet_0018</t>
+  </si>
+  <si>
+    <t>PetName_0018</t>
+  </si>
+  <si>
+    <t>DinoC</t>
+  </si>
+  <si>
+    <t>Pet_DinoC</t>
+  </si>
+  <si>
+    <t>Pet_0019</t>
+  </si>
+  <si>
+    <t>PetName_0019</t>
+  </si>
+  <si>
+    <t>PlantaA</t>
+  </si>
+  <si>
+    <t>Pet_PlantaA</t>
+  </si>
+  <si>
+    <t>Pet_0020</t>
+  </si>
+  <si>
+    <t>PetName_0020</t>
+  </si>
+  <si>
+    <t>PlantaB</t>
+  </si>
+  <si>
+    <t>Pet_PlantaB</t>
+  </si>
+  <si>
+    <t>Pet_0021</t>
+  </si>
+  <si>
+    <t>PetName_0021</t>
+  </si>
+  <si>
+    <t>PuffeA</t>
+  </si>
+  <si>
+    <t>Pet_PuffeA</t>
+  </si>
+  <si>
+    <t>Pet_0022</t>
+  </si>
+  <si>
+    <t>PetName_0022</t>
+  </si>
+  <si>
+    <t>PuffeB</t>
+  </si>
+  <si>
+    <t>Pet_PuffeB</t>
+  </si>
+  <si>
+    <t>Pet_0023</t>
+  </si>
+  <si>
+    <t>PetName_0023</t>
+  </si>
+  <si>
+    <t>Rosehips</t>
+  </si>
+  <si>
+    <t>Pet_Rosehips</t>
+  </si>
+  <si>
+    <t>Pet_0024</t>
+  </si>
+  <si>
+    <t>PetName_0024</t>
+  </si>
+  <si>
+    <t>SdDragon00</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon00</t>
+  </si>
+  <si>
+    <t>Pet_0025</t>
+  </si>
+  <si>
+    <t>PetName_0025</t>
+  </si>
+  <si>
+    <t>SdDragon33</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon33</t>
+  </si>
+  <si>
+    <t>Pet_0026</t>
+  </si>
+  <si>
+    <t>PetName_0026</t>
+  </si>
+  <si>
+    <t>SdDragon35</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon35</t>
+  </si>
+  <si>
+    <t>Pet_0027</t>
+  </si>
+  <si>
+    <t>PetName_0027</t>
+  </si>
+  <si>
+    <t>SdDragon38</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon38</t>
+  </si>
+  <si>
+    <t>Pet_0028</t>
+  </si>
+  <si>
+    <t>PetName_0028</t>
+  </si>
+  <si>
+    <t>SdDragon56</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon56</t>
+  </si>
+  <si>
+    <t>Pet_0029</t>
+  </si>
+  <si>
+    <t>PetName_0029</t>
+  </si>
+  <si>
+    <t>SdDragon57</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon57</t>
+  </si>
+  <si>
+    <t>Pet_0030</t>
+  </si>
+  <si>
+    <t>PetName_0030</t>
+  </si>
+  <si>
+    <t>SdDragon68</t>
+  </si>
+  <si>
+    <t>Pet_SdDragon68</t>
+  </si>
+  <si>
+    <t>Pet_0031</t>
+  </si>
+  <si>
+    <t>PetName_0031</t>
+  </si>
+  <si>
+    <t>Swinecone</t>
+  </si>
+  <si>
+    <t>Pet_Swinecone</t>
+  </si>
+  <si>
+    <t>Pet_0032</t>
+  </si>
+  <si>
+    <t>PetName_0032</t>
+  </si>
+  <si>
+    <t>WhispaA</t>
+  </si>
+  <si>
+    <t>Pet_WhispaA</t>
+  </si>
+  <si>
+    <t>Pet_0033</t>
+  </si>
+  <si>
+    <t>PetName_0033</t>
+  </si>
+  <si>
+    <t>WhispaB</t>
+  </si>
+  <si>
+    <t>Pet_WhispaB</t>
   </si>
 </sst>
 </file>
@@ -598,9 +886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -652,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -666,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -681,10 +971,10 @@
         <v>64</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>1.2857142859999999</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -692,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -707,10 +997,10 @@
         <v>65</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -718,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -727,16 +1017,16 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
         <v>6</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -744,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -753,16 +1043,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="H6">
-        <v>13.33333333</v>
+        <v>6.6666666670000003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -779,24 +1069,24 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -805,24 +1095,24 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -831,24 +1121,24 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H9">
-        <v>13.33333333</v>
+        <v>6.6666666670000003</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -857,24 +1147,24 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -883,24 +1173,24 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -909,16 +1199,588 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G12">
+        <v>28</v>
+      </c>
+      <c r="H12">
+        <v>6.6666666670000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15">
         <v>11</v>
       </c>
-      <c r="H12">
-        <v>13.33333333</v>
+      <c r="H15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>6.6666666670000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23">
+        <v>28</v>
+      </c>
+      <c r="H23">
+        <v>6.6666666670000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F27" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>1.2857142859999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
+      <c r="B32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F33" t="s">
+        <v>157</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34">
+        <v>28</v>
+      </c>
+      <c r="H34">
+        <v>6.6666666670000003</v>
       </c>
     </row>
   </sheetData>
@@ -945,10 +1807,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -959,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -970,7 +1832,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -981,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -992,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1003,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1025,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2388,33 +3250,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
-        <v>40</v>
-      </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -2428,10 +3290,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2446,15 +3308,15 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2469,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626B4BAC-7663-48E3-8300-FF408226D11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F55C7-9AFB-4A1A-8593-7B9AEAC05687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -90,24 +90,6 @@
     <t>spriteName|String</t>
   </si>
   <si>
-    <t>PetName_0001</t>
-  </si>
-  <si>
-    <t>PetName_0002</t>
-  </si>
-  <si>
-    <t>PetName_0003</t>
-  </si>
-  <si>
-    <t>PetName_0004</t>
-  </si>
-  <si>
-    <t>PetName_0005</t>
-  </si>
-  <si>
-    <t>PetName_0006</t>
-  </si>
-  <si>
     <t>count|Int</t>
   </si>
   <si>
@@ -213,21 +195,6 @@
     <t>Pet_0011</t>
   </si>
   <si>
-    <t>PetName_0007</t>
-  </si>
-  <si>
-    <t>PetName_0008</t>
-  </si>
-  <si>
-    <t>PetName_0009</t>
-  </si>
-  <si>
-    <t>PetName_0010</t>
-  </si>
-  <si>
-    <t>PetName_0011</t>
-  </si>
-  <si>
     <t>Pet_CuteUnicorn</t>
   </si>
   <si>
@@ -264,9 +231,6 @@
     <t>Pet_0012</t>
   </si>
   <si>
-    <t>PetName_0012</t>
-  </si>
-  <si>
     <t>BettyA</t>
   </si>
   <si>
@@ -276,9 +240,6 @@
     <t>Pet_0013</t>
   </si>
   <si>
-    <t>PetName_0013</t>
-  </si>
-  <si>
     <t>BettyC</t>
   </si>
   <si>
@@ -288,9 +249,6 @@
     <t>Pet_0014</t>
   </si>
   <si>
-    <t>PetName_0014</t>
-  </si>
-  <si>
     <t>CuteCrabA</t>
   </si>
   <si>
@@ -300,9 +258,6 @@
     <t>Pet_0015</t>
   </si>
   <si>
-    <t>PetName_0015</t>
-  </si>
-  <si>
     <t>CuteCrabB</t>
   </si>
   <si>
@@ -312,9 +267,6 @@
     <t>Pet_0016</t>
   </si>
   <si>
-    <t>PetName_0016</t>
-  </si>
-  <si>
     <t>DinoA</t>
   </si>
   <si>
@@ -324,9 +276,6 @@
     <t>Pet_0017</t>
   </si>
   <si>
-    <t>PetName_0017</t>
-  </si>
-  <si>
     <t>DinoB</t>
   </si>
   <si>
@@ -336,9 +285,6 @@
     <t>Pet_0018</t>
   </si>
   <si>
-    <t>PetName_0018</t>
-  </si>
-  <si>
     <t>DinoC</t>
   </si>
   <si>
@@ -348,9 +294,6 @@
     <t>Pet_0019</t>
   </si>
   <si>
-    <t>PetName_0019</t>
-  </si>
-  <si>
     <t>PlantaA</t>
   </si>
   <si>
@@ -360,9 +303,6 @@
     <t>Pet_0020</t>
   </si>
   <si>
-    <t>PetName_0020</t>
-  </si>
-  <si>
     <t>PlantaB</t>
   </si>
   <si>
@@ -372,9 +312,6 @@
     <t>Pet_0021</t>
   </si>
   <si>
-    <t>PetName_0021</t>
-  </si>
-  <si>
     <t>PuffeA</t>
   </si>
   <si>
@@ -384,9 +321,6 @@
     <t>Pet_0022</t>
   </si>
   <si>
-    <t>PetName_0022</t>
-  </si>
-  <si>
     <t>PuffeB</t>
   </si>
   <si>
@@ -396,9 +330,6 @@
     <t>Pet_0023</t>
   </si>
   <si>
-    <t>PetName_0023</t>
-  </si>
-  <si>
     <t>Rosehips</t>
   </si>
   <si>
@@ -408,9 +339,6 @@
     <t>Pet_0024</t>
   </si>
   <si>
-    <t>PetName_0024</t>
-  </si>
-  <si>
     <t>SdDragon00</t>
   </si>
   <si>
@@ -420,9 +348,6 @@
     <t>Pet_0025</t>
   </si>
   <si>
-    <t>PetName_0025</t>
-  </si>
-  <si>
     <t>SdDragon33</t>
   </si>
   <si>
@@ -432,9 +357,6 @@
     <t>Pet_0026</t>
   </si>
   <si>
-    <t>PetName_0026</t>
-  </si>
-  <si>
     <t>SdDragon35</t>
   </si>
   <si>
@@ -444,9 +366,6 @@
     <t>Pet_0027</t>
   </si>
   <si>
-    <t>PetName_0027</t>
-  </si>
-  <si>
     <t>SdDragon38</t>
   </si>
   <si>
@@ -456,9 +375,6 @@
     <t>Pet_0028</t>
   </si>
   <si>
-    <t>PetName_0028</t>
-  </si>
-  <si>
     <t>SdDragon56</t>
   </si>
   <si>
@@ -468,9 +384,6 @@
     <t>Pet_0029</t>
   </si>
   <si>
-    <t>PetName_0029</t>
-  </si>
-  <si>
     <t>SdDragon57</t>
   </si>
   <si>
@@ -480,9 +393,6 @@
     <t>Pet_0030</t>
   </si>
   <si>
-    <t>PetName_0030</t>
-  </si>
-  <si>
     <t>SdDragon68</t>
   </si>
   <si>
@@ -492,9 +402,6 @@
     <t>Pet_0031</t>
   </si>
   <si>
-    <t>PetName_0031</t>
-  </si>
-  <si>
     <t>Swinecone</t>
   </si>
   <si>
@@ -504,9 +411,6 @@
     <t>Pet_0032</t>
   </si>
   <si>
-    <t>PetName_0032</t>
-  </si>
-  <si>
     <t>WhispaA</t>
   </si>
   <si>
@@ -516,13 +420,109 @@
     <t>Pet_0033</t>
   </si>
   <si>
-    <t>PetName_0033</t>
-  </si>
-  <si>
     <t>WhispaB</t>
   </si>
   <si>
     <t>Pet_WhispaB</t>
+  </si>
+  <si>
+    <t>PetName_CuteUnicorn</t>
+  </si>
+  <si>
+    <t>PetName_TamporaB</t>
+  </si>
+  <si>
+    <t>PetName_TamporaA</t>
+  </si>
+  <si>
+    <t>PetName_FirePigA</t>
+  </si>
+  <si>
+    <t>PetName_FirePigB</t>
+  </si>
+  <si>
+    <t>PetName_ShellfishA</t>
+  </si>
+  <si>
+    <t>PetName_ShellfishC</t>
+  </si>
+  <si>
+    <t>PetName_ShellfishE</t>
+  </si>
+  <si>
+    <t>PetName_StarfishC</t>
+  </si>
+  <si>
+    <t>PetName_StarfishD</t>
+  </si>
+  <si>
+    <t>PetName_StarfishE</t>
+  </si>
+  <si>
+    <t>PetName_BettyA</t>
+  </si>
+  <si>
+    <t>PetName_BettyC</t>
+  </si>
+  <si>
+    <t>PetName_CuteCrabA</t>
+  </si>
+  <si>
+    <t>PetName_CuteCrabB</t>
+  </si>
+  <si>
+    <t>PetName_DinoA</t>
+  </si>
+  <si>
+    <t>PetName_DinoB</t>
+  </si>
+  <si>
+    <t>PetName_DinoC</t>
+  </si>
+  <si>
+    <t>PetName_PlantaA</t>
+  </si>
+  <si>
+    <t>PetName_PlantaB</t>
+  </si>
+  <si>
+    <t>PetName_PuffeA</t>
+  </si>
+  <si>
+    <t>PetName_PuffeB</t>
+  </si>
+  <si>
+    <t>PetName_Rosehips</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon00</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon33</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon35</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon38</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon56</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon57</t>
+  </si>
+  <si>
+    <t>PetName_SdDragon68</t>
+  </si>
+  <si>
+    <t>PetName_Swinecone</t>
+  </si>
+  <si>
+    <t>PetName_WhispaA</t>
+  </si>
+  <si>
+    <t>PetName_WhispaB</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -942,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -968,7 +968,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G4">
         <v>11</v>
@@ -1008,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>132</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1017,10 +1017,10 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>23</v>
@@ -1034,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1043,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>28</v>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>134</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1069,10 +1069,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="G7">
         <v>11</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1095,10 +1095,10 @@
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="G8">
         <v>23</v>
@@ -1109,22 +1109,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
       </c>
       <c r="G9">
         <v>28</v>
@@ -1135,10 +1135,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1147,10 +1147,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>11</v>
@@ -1161,10 +1161,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1173,10 +1173,10 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -1187,22 +1187,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
         <v>62</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
       </c>
       <c r="G12">
         <v>28</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1225,10 +1225,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -1251,10 +1251,10 @@
         <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G14">
         <v>23</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -1277,10 +1277,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="G15">
         <v>11</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1329,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -1343,10 +1343,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1355,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G18">
         <v>11</v>
@@ -1369,10 +1369,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -1381,10 +1381,10 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1407,10 +1407,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -1421,10 +1421,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1433,10 +1433,10 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <v>11</v>
@@ -1447,10 +1447,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1459,10 +1459,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G22">
         <v>23</v>
@@ -1473,10 +1473,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B23" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1485,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G23">
         <v>28</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1511,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1537,10 +1537,10 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F25" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1563,10 +1563,10 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -1577,10 +1577,10 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1589,10 +1589,10 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1603,10 +1603,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -1615,10 +1615,10 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="G28">
         <v>11</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1641,10 +1641,10 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1667,10 +1667,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="G30">
         <v>11</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -1693,10 +1693,10 @@
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G31">
         <v>11</v>
@@ -1707,10 +1707,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -1719,10 +1719,10 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G32">
         <v>11</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -1745,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1771,10 +1771,10 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="G34">
         <v>28</v>
@@ -1807,10 +1807,10 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1821,7 +1821,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1832,7 +1832,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1843,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1865,7 +1865,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1887,13 +1887,13 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3250,33 +3250,33 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -3290,10 +3290,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -3308,15 +3308,15 @@
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -3331,7 +3331,7 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F55C7-9AFB-4A1A-8593-7B9AEAC05687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F76F-17D0-4D57-9683-9481E9F770F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -895,7 +895,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="5" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1557,10 +1557,10 @@
         <v>153</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -1569,10 +1569,10 @@
         <v>104</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>1.2857142859999999</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,10 +1609,10 @@
         <v>155</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1621,10 +1621,10 @@
         <v>110</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>1.5</v>
+        <v>1.2857142859999999</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2096F76F-17D0-4D57-9683-9481E9F770F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C4727-31CC-44D4-8468-BEEDCCF9260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -1063,10 +1063,10 @@
         <v>134</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1075,10 +1075,10 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H7">
-        <v>1.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,10 +1089,10 @@
         <v>135</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1101,10 +1101,10 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>6.6666666670000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1115,10 +1115,10 @@
         <v>136</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1127,10 +1127,10 @@
         <v>59</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H9">
-        <v>6.6666666670000003</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98C4727-31CC-44D4-8468-BEEDCCF9260D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F065F8-C769-4EE5-9F7A-FA06AE443829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -959,10 +959,10 @@
         <v>130</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -971,10 +971,10 @@
         <v>53</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>1.2857142859999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -997,10 +997,10 @@
         <v>54</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1023,10 +1023,10 @@
         <v>55</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1037,10 +1037,10 @@
         <v>133</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1049,10 +1049,10 @@
         <v>56</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>6.6666666670000003</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1063,10 +1063,10 @@
         <v>134</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1075,10 +1075,10 @@
         <v>57</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1089,10 +1089,10 @@
         <v>135</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1101,10 +1101,10 @@
         <v>58</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>6.6666666670000003</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1115,10 +1115,10 @@
         <v>136</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1127,10 +1127,10 @@
         <v>59</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H9">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1153,10 +1153,10 @@
         <v>60</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1167,10 +1167,10 @@
         <v>138</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -1179,10 +1179,10 @@
         <v>61</v>
       </c>
       <c r="G11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1193,10 +1193,10 @@
         <v>139</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1205,10 +1205,10 @@
         <v>62</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H12">
-        <v>6.6666666670000003</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1219,10 +1219,10 @@
         <v>140</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -1231,10 +1231,10 @@
         <v>65</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="H13">
-        <v>1.2857142859999999</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1245,10 +1245,10 @@
         <v>141</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -1257,10 +1257,10 @@
         <v>68</v>
       </c>
       <c r="G14">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1271,10 +1271,10 @@
         <v>142</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -1283,10 +1283,10 @@
         <v>71</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H15">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1297,10 +1297,10 @@
         <v>143</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1309,10 +1309,10 @@
         <v>74</v>
       </c>
       <c r="G16">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>6.6666666670000003</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1323,10 +1323,10 @@
         <v>144</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -1335,10 +1335,10 @@
         <v>77</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>1.2857142859999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1349,10 +1349,10 @@
         <v>145</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1361,10 +1361,10 @@
         <v>80</v>
       </c>
       <c r="G18">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1375,10 +1375,10 @@
         <v>146</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -1387,10 +1387,10 @@
         <v>83</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1401,10 +1401,10 @@
         <v>147</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -1413,10 +1413,10 @@
         <v>86</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>1.2857142859999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1427,10 +1427,10 @@
         <v>148</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -1439,10 +1439,10 @@
         <v>89</v>
       </c>
       <c r="G21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H21">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,10 +1453,10 @@
         <v>149</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -1465,10 +1465,10 @@
         <v>92</v>
       </c>
       <c r="G22">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,10 +1479,10 @@
         <v>150</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -1491,10 +1491,10 @@
         <v>95</v>
       </c>
       <c r="G23">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>6.6666666670000003</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1505,10 +1505,10 @@
         <v>151</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -1517,10 +1517,10 @@
         <v>98</v>
       </c>
       <c r="G24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>1.2857142859999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1531,10 +1531,10 @@
         <v>152</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -1543,10 +1543,10 @@
         <v>101</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1569,10 +1569,10 @@
         <v>104</v>
       </c>
       <c r="G26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,10 +1583,10 @@
         <v>154</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -1595,10 +1595,10 @@
         <v>107</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>1.2857142859999999</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1621,10 +1621,10 @@
         <v>110</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>1.2857142859999999</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1635,10 +1635,10 @@
         <v>156</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -1647,10 +1647,10 @@
         <v>113</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H29">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,10 +1661,10 @@
         <v>157</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1673,10 +1673,10 @@
         <v>116</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1687,10 +1687,10 @@
         <v>158</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E31" t="s">
         <v>118</v>
@@ -1699,10 +1699,10 @@
         <v>119</v>
       </c>
       <c r="G31">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H31">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1713,10 +1713,10 @@
         <v>159</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E32" t="s">
         <v>121</v>
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="G32">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H32">
-        <v>1.5</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,10 +1739,10 @@
         <v>160</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
@@ -1751,10 +1751,10 @@
         <v>125</v>
       </c>
       <c r="G33">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H33">
-        <v>1.5</v>
+        <v>5.7142857139999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1765,10 +1765,10 @@
         <v>161</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>127</v>
@@ -1777,10 +1777,10 @@
         <v>128</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H34">
-        <v>6.6666666670000003</v>
+        <v>3.3333333330000001</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F065F8-C769-4EE5-9F7A-FA06AE443829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D2B13-C1D8-4404-8102-75FCC319E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E31" t="s">
         <v>118</v>
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
         <v>121</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E34" t="s">
         <v>127</v>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991D2B13-C1D8-4404-8102-75FCC319E301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1E814-83A9-42C2-9FDA-8866939201F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
         <v>118</v>
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>121</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>127</v>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A1E814-83A9-42C2-9FDA-8866939201F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2164517-FB95-4A39-B696-A842A4BD6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1078,7 +1078,7 @@
         <v>27</v>
       </c>
       <c r="H7">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1104,7 +1104,7 @@
         <v>5</v>
       </c>
       <c r="H8">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1182,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="H11">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1234,7 +1234,7 @@
         <v>27</v>
       </c>
       <c r="H13">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1260,7 +1260,7 @@
         <v>27</v>
       </c>
       <c r="H14">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="H16">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>5</v>
       </c>
       <c r="H18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1390,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="H19">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1468,7 +1468,7 @@
         <v>27</v>
       </c>
       <c r="H22">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="H25">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1624,7 +1624,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1754,7 +1754,7 @@
         <v>27</v>
       </c>
       <c r="H33">
-        <v>5.7142857139999998</v>
+        <v>6.4285714289999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2164517-FB95-4A39-B696-A842A4BD6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F2B3C-C97C-4290-9C90-A66A7E8F9E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1878,7 +1878,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A921F3D8-0505-4772-AB42-62562D832756}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1921,7 +1923,7 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>500000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="D4">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>1500000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,7 +1965,7 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,7 +1979,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,7 +1993,7 @@
         <v>35</v>
       </c>
       <c r="D8">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2005,7 +2007,7 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>3500000</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2019,7 +2021,7 @@
         <v>45</v>
       </c>
       <c r="D10">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,7 +2035,7 @@
         <v>50</v>
       </c>
       <c r="D11">
-        <v>4500000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2047,7 +2049,7 @@
         <v>55</v>
       </c>
       <c r="D12">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,7 +2063,7 @@
         <v>60</v>
       </c>
       <c r="D13">
-        <v>5500000</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2075,7 +2077,7 @@
         <v>65</v>
       </c>
       <c r="D14">
-        <v>6000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2089,7 +2091,7 @@
         <v>70</v>
       </c>
       <c r="D15">
-        <v>6500000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2103,7 +2105,7 @@
         <v>75</v>
       </c>
       <c r="D16">
-        <v>7000000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,7 +2119,7 @@
         <v>80</v>
       </c>
       <c r="D17">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,7 +2133,7 @@
         <v>85</v>
       </c>
       <c r="D18">
-        <v>8000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,7 +2147,7 @@
         <v>90</v>
       </c>
       <c r="D19">
-        <v>8500000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,7 +2161,7 @@
         <v>95</v>
       </c>
       <c r="D20">
-        <v>9000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,7 +2189,7 @@
         <v>10</v>
       </c>
       <c r="D22">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,7 +2203,7 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,7 +2217,7 @@
         <v>20</v>
       </c>
       <c r="D24">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,7 +2231,7 @@
         <v>25</v>
       </c>
       <c r="D25">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,7 +2245,7 @@
         <v>30</v>
       </c>
       <c r="D26">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>6000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,7 +2273,7 @@
         <v>40</v>
       </c>
       <c r="D28">
-        <v>7000000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,7 +2287,7 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>8000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,7 +2301,7 @@
         <v>50</v>
       </c>
       <c r="D30">
-        <v>9000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,7 +2315,7 @@
         <v>55</v>
       </c>
       <c r="D31">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,7 +2329,7 @@
         <v>60</v>
       </c>
       <c r="D32">
-        <v>11000000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,7 +2343,7 @@
         <v>65</v>
       </c>
       <c r="D33">
-        <v>12000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,7 +2357,7 @@
         <v>70</v>
       </c>
       <c r="D34">
-        <v>13000000</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,7 +2371,7 @@
         <v>75</v>
       </c>
       <c r="D35">
-        <v>14000000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,7 +2385,7 @@
         <v>80</v>
       </c>
       <c r="D36">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,7 +2399,7 @@
         <v>85</v>
       </c>
       <c r="D37">
-        <v>16000000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,7 +2413,7 @@
         <v>90</v>
       </c>
       <c r="D38">
-        <v>17000000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,7 +2427,7 @@
         <v>95</v>
       </c>
       <c r="D39">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>1500000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="D42">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,7 +2483,7 @@
         <v>20</v>
       </c>
       <c r="D43">
-        <v>4500000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,7 +2497,7 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>6000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,7 +2511,7 @@
         <v>30</v>
       </c>
       <c r="D45">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,7 +2525,7 @@
         <v>35</v>
       </c>
       <c r="D46">
-        <v>9000000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,7 +2539,7 @@
         <v>40</v>
       </c>
       <c r="D47">
-        <v>10500000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,7 +2553,7 @@
         <v>45</v>
       </c>
       <c r="D48">
-        <v>12000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,7 +2567,7 @@
         <v>50</v>
       </c>
       <c r="D49">
-        <v>13500000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,7 +2581,7 @@
         <v>55</v>
       </c>
       <c r="D50">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2593,7 +2595,7 @@
         <v>60</v>
       </c>
       <c r="D51">
-        <v>16500000</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,7 +2609,7 @@
         <v>65</v>
       </c>
       <c r="D52">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,7 +2623,7 @@
         <v>70</v>
       </c>
       <c r="D53">
-        <v>19500000</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,7 +2637,7 @@
         <v>75</v>
       </c>
       <c r="D54">
-        <v>21000000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2649,7 +2651,7 @@
         <v>80</v>
       </c>
       <c r="D55">
-        <v>22500000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,7 +2665,7 @@
         <v>85</v>
       </c>
       <c r="D56">
-        <v>24000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,7 +2679,7 @@
         <v>90</v>
       </c>
       <c r="D57">
-        <v>25500000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,7 +2693,7 @@
         <v>95</v>
       </c>
       <c r="D58">
-        <v>27000000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2719,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,7 +2735,7 @@
         <v>15</v>
       </c>
       <c r="D61">
-        <v>4000000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2747,7 +2749,7 @@
         <v>20</v>
       </c>
       <c r="D62">
-        <v>6000000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2761,7 +2763,7 @@
         <v>25</v>
       </c>
       <c r="D63">
-        <v>8000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2775,7 +2777,7 @@
         <v>30</v>
       </c>
       <c r="D64">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2789,7 +2791,7 @@
         <v>35</v>
       </c>
       <c r="D65">
-        <v>12000000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2803,7 +2805,7 @@
         <v>40</v>
       </c>
       <c r="D66">
-        <v>14000000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,7 +2819,7 @@
         <v>45</v>
       </c>
       <c r="D67">
-        <v>16000000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,7 +2833,7 @@
         <v>50</v>
       </c>
       <c r="D68">
-        <v>18000000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,7 +2847,7 @@
         <v>55</v>
       </c>
       <c r="D69">
-        <v>20000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,7 +2861,7 @@
         <v>60</v>
       </c>
       <c r="D70">
-        <v>22000000</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2873,7 +2875,7 @@
         <v>65</v>
       </c>
       <c r="D71">
-        <v>24000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2887,7 +2889,7 @@
         <v>70</v>
       </c>
       <c r="D72">
-        <v>26000000</v>
+        <v>2600000</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2901,7 +2903,7 @@
         <v>75</v>
       </c>
       <c r="D73">
-        <v>28000000</v>
+        <v>2800000</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2915,7 +2917,7 @@
         <v>80</v>
       </c>
       <c r="D74">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2929,7 +2931,7 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>32000000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2943,7 +2945,7 @@
         <v>90</v>
       </c>
       <c r="D76">
-        <v>34000000</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2957,7 +2959,7 @@
         <v>95</v>
       </c>
       <c r="D77">
-        <v>36000000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2985,7 +2987,7 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>2500000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2999,7 +3001,7 @@
         <v>15</v>
       </c>
       <c r="D80">
-        <v>5000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3013,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="D81">
-        <v>7500000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3027,7 +3029,7 @@
         <v>25</v>
       </c>
       <c r="D82">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,7 +3043,7 @@
         <v>30</v>
       </c>
       <c r="D83">
-        <v>12500000</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3055,7 +3057,7 @@
         <v>35</v>
       </c>
       <c r="D84">
-        <v>15000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3069,7 +3071,7 @@
         <v>40</v>
       </c>
       <c r="D85">
-        <v>17500000</v>
+        <v>1750000</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3083,7 +3085,7 @@
         <v>45</v>
       </c>
       <c r="D86">
-        <v>20000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3097,7 +3099,7 @@
         <v>50</v>
       </c>
       <c r="D87">
-        <v>22500000</v>
+        <v>2250000</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3111,7 +3113,7 @@
         <v>55</v>
       </c>
       <c r="D88">
-        <v>25000000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3125,7 +3127,7 @@
         <v>60</v>
       </c>
       <c r="D89">
-        <v>27500000</v>
+        <v>2750000</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3139,7 +3141,7 @@
         <v>65</v>
       </c>
       <c r="D90">
-        <v>30000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3153,7 +3155,7 @@
         <v>70</v>
       </c>
       <c r="D91">
-        <v>32500000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3167,7 +3169,7 @@
         <v>75</v>
       </c>
       <c r="D92">
-        <v>35000000</v>
+        <v>3500000</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3181,7 +3183,7 @@
         <v>80</v>
       </c>
       <c r="D93">
-        <v>37500000</v>
+        <v>3750000</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3195,7 +3197,7 @@
         <v>85</v>
       </c>
       <c r="D94">
-        <v>40000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3209,7 +3211,7 @@
         <v>90</v>
       </c>
       <c r="D95">
-        <v>42500000</v>
+        <v>4250000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3223,7 +3225,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>45000000</v>
+        <v>4500000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9F2B3C-C97C-4290-9C90-A66A7E8F9E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E6148-79B8-4D25-B85D-4CF4231C090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1000,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1026,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="H5">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -1052,7 +1052,7 @@
         <v>10</v>
       </c>
       <c r="H6">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
         <v>18</v>
       </c>
       <c r="H9">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1156,7 +1156,7 @@
         <v>10</v>
       </c>
       <c r="H10">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="H12">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1286,7 +1286,7 @@
         <v>18</v>
       </c>
       <c r="H15">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1338,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="H17">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1416,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="H20">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,7 +1442,7 @@
         <v>18</v>
       </c>
       <c r="H21">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="H23">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1572,7 +1572,7 @@
         <v>10</v>
       </c>
       <c r="H26">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1598,7 +1598,7 @@
         <v>10</v>
       </c>
       <c r="H27">
-        <v>1.75</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>18</v>
       </c>
       <c r="H29">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1702,7 +1702,7 @@
         <v>18</v>
       </c>
       <c r="H31">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>18</v>
       </c>
       <c r="H32">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1780,7 +1780,7 @@
         <v>18</v>
       </c>
       <c r="H34">
-        <v>3.3333333330000001</v>
+        <v>4.1111111109999996</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A921F3D8-0505-4772-AB42-62562D832756}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E6148-79B8-4D25-B85D-4CF4231C090F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94526A5-4250-4F39-BB68-650449425C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -988,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1014,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
@@ -1040,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
@@ -1066,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1118,7 +1118,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>43</v>
@@ -1144,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D10">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
         <v>44</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>45</v>
@@ -1196,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
         <v>67</v>
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>70</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1326,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>76</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1378,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
         <v>82</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
         <v>85</v>
@@ -1430,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
         <v>88</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>91</v>
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>103</v>
@@ -1586,7 +1586,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>106</v>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1638,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1690,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>118</v>
@@ -1716,7 +1716,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
         <v>121</v>
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
         <v>124</v>
@@ -1768,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
         <v>127</v>
@@ -1793,9 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0D56E-8554-480F-9D28-FB27B90B1A07}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1818,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -1829,7 +1827,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -1840,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -1851,7 +1849,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>

--- a/Excel/Pet.xlsx
+++ b/Excel/Pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94526A5-4250-4F39-BB68-650449425C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2F53EF-A773-4DA0-A815-96309AA86F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
+    <workbookView xWindow="28680" yWindow="2670" windowWidth="24240" windowHeight="13140" xr2:uid="{2CD979F8-641A-489B-AD59-45F7500B59B8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetTable" sheetId="2" r:id="rId1"/>
@@ -888,7 +888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34D833B-1531-4D0A-8119-5FB3C5757C64}">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +936,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -962,7 +962,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1092,7 +1092,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
         <v>42</v>
@@ -1300,7 +1300,7 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
         <v>73</v>
@@ -1352,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
         <v>97</v>
@@ -1534,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>100</v>
@@ -1612,7 +1612,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>109</v>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
         <v>115</v>
@@ -1793,7 +1793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB0D56E-8554-480F-9D28-FB27B90B1A07}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
